--- a/秉儒保單.xlsx
+++ b/秉儒保單.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingruxie/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingruxie/Documents/GitHub/insurance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099373B6-AE91-B54E-8D56-0A8F1DFC6B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E53F7-7C33-B744-844A-B653A86FDE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="360" windowWidth="28040" windowHeight="17440" activeTab="10" xr2:uid="{093D2208-9B8F-CF4E-B5B0-4080D8DFE2D1}"/>
+    <workbookView xWindow="5560" yWindow="360" windowWidth="28040" windowHeight="17440" firstSheet="1" activeTab="11" xr2:uid="{093D2208-9B8F-CF4E-B5B0-4080D8DFE2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="新呵護久久" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="安順手術醫療" sheetId="12" r:id="rId9"/>
     <sheet name="雙好還本" sheetId="13" r:id="rId10"/>
     <sheet name="溫情住院醫療" sheetId="14" r:id="rId11"/>
+    <sheet name="鑫彩306增額終身壽險" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="55">
   <si>
     <t>新鍾心滿福重大傷病定期保險(外溢型)</t>
   </si>
@@ -205,6 +206,12 @@
   <si>
     <t>加護雜費限額</t>
   </si>
+  <si>
+    <t>XHR醫療費用健康保險附約</t>
+  </si>
+  <si>
+    <t>住院醫療（最高）</t>
+  </si>
 </sst>
 </file>
 
@@ -258,20 +265,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="69">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -399,6 +420,36 @@
       <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -453,33 +504,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -725,10 +749,10 @@
       <calculatedColumnFormula>新呵護久久511[[#This Row],[西元年]]-2002</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{2A475CBE-55FA-3946-853D-0DAC2F42A344}" name="西元年"/>
-    <tableColumn id="4" xr3:uid="{5EE18C8F-B2A3-014F-9BF4-D265E520FD12}" name="保費" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{5EE18C8F-B2A3-014F-9BF4-D265E520FD12}" name="保費" dataDxfId="13">
       <calculatedColumnFormula>IF(D2&lt;=$B$5,62600,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{599D9837-5204-A740-85D3-9C98854BEFF2}" name="一般身故" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{599D9837-5204-A740-85D3-9C98854BEFF2}" name="一般身故" dataDxfId="12">
       <calculatedColumnFormula>IF(E2&lt;$B$4,MAX($B$6,SUM($G$2:新呵護久久511[[#This Row],[保費]])-SUM($K$3:新呵護久久511[[#This Row],[生存領回金]])),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{CCC02BDE-EDC6-3442-8E94-763FF9F207AC}" name="意外身故">
@@ -737,7 +761,7 @@
     <tableColumn id="7" xr3:uid="{B2EE1E5C-8544-1D41-A84F-1333E828769D}" name="癌症身故">
       <calculatedColumnFormula>H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A503B23F-2A2D-3047-ACF2-E392A6041141}" name="生存領回金" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{A503B23F-2A2D-3047-ACF2-E392A6041141}" name="生存領回金" dataDxfId="11">
       <calculatedColumnFormula>IF(新呵護久久511[[#This Row],[年齡]]&gt;$B$4+1,0,IF(AND(MOD(E2,2)=0,新呵護久久511[[#This Row],[年齡]]&lt;&gt;0),40000,0)+IF(AND(MOD(E2,2)=0,新呵護久久511[[#This Row],[年齡]]&gt;21),8000,0)+IF(新呵護久久511[[#This Row],[年齡]]=$B$4+1,400000,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -754,19 +778,19 @@
       <calculatedColumnFormula>新呵護久久5612[[#This Row],[西元年]]-2002</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{5EB9B579-ACB1-A549-BF9B-0FE709692595}" name="西元年"/>
-    <tableColumn id="4" xr3:uid="{D1DFB795-566F-4649-9059-4EA166F8409D}" name="保費" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{D1DFB795-566F-4649-9059-4EA166F8409D}" name="保費" dataDxfId="10">
       <calculatedColumnFormula>IF(D2&lt;=$B$5,1818,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2EAF4C0F-B742-F14A-A57B-B032E6D0B614}" name="住院病房（日）" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{2EAF4C0F-B742-F14A-A57B-B032E6D0B614}" name="住院病房（日）" dataDxfId="9">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,1000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2532E730-0109-1944-9790-F678067D6C31}" name="門診手術" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{2532E730-0109-1944-9790-F678067D6C31}" name="門診手術" dataDxfId="8">
       <calculatedColumnFormula>IF(新呵護久久5612[[#This Row],[年齡]]&lt;=$B$4,10000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{270DE7B5-39DC-EC47-85B9-4297B4383764}" name="雜費限額" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{270DE7B5-39DC-EC47-85B9-4297B4383764}" name="雜費限額" dataDxfId="7">
       <calculatedColumnFormula>IF(新呵護久久5612[[#This Row],[年齡]]&lt;=$B$4,100000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5E5729D9-D45F-8C4A-8A6D-98982930BE5F}" name="加護雜費限額" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{5E5729D9-D45F-8C4A-8A6D-98982930BE5F}" name="加護雜費限額" dataDxfId="6">
       <calculatedColumnFormula>IF(新呵護久久5612[[#This Row],[年齡]]&lt;=$B$4,200000,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -774,8 +798,40 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{733DE931-6FC5-FB4A-81F8-98815AC7C664}" name="新呵護久久567913" displayName="新呵護久久567913" ref="D1:L111" totalsRowShown="0">
+  <autoFilter ref="D1:L111" xr:uid="{60054A48-E88A-1F49-83F2-C2C350EF210F}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{05DCD79D-C81E-1B43-92CC-7615018AA273}" name="保單年度"/>
+    <tableColumn id="2" xr3:uid="{41CE29CF-A37B-2842-A5B4-2DDA21197DA5}" name="年齡">
+      <calculatedColumnFormula>新呵護久久567913[[#This Row],[西元年]]-2002</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{41FC048F-1A1D-2C41-8307-3CE1B8813CD8}" name="西元年"/>
+    <tableColumn id="4" xr3:uid="{5F2052D3-E085-3C4B-BF2B-C571B1DB9AC7}" name="保費" dataDxfId="5">
+      <calculatedColumnFormula>IF(D2&lt;=$B$5,1136,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{52143847-8FE2-F74B-A7EC-4D4E362DC430}" name="住院病房（日）" dataDxfId="4">
+      <calculatedColumnFormula>IF(E2&lt;=$B$4,2000,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4996A7BD-5128-F14A-9E33-DF36ABE0FE36}" name="加護傷燙住院（日）" dataDxfId="3">
+      <calculatedColumnFormula>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{D9A8AE80-6D35-4148-9E43-2C32DB52BC41}" name="住院手術" dataDxfId="2">
+      <calculatedColumnFormula>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{7541FF0F-3614-7A44-B3CE-EA3617DF1496}" name="門診手術" dataDxfId="1">
+      <calculatedColumnFormula>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{F246DBA9-8B80-E849-8044-8BFC032792AC}" name="住院醫療（最高）" dataDxfId="0">
+      <calculatedColumnFormula>IF(E2&lt;=$B$4,350000,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FE3BEE-EB93-2649-90E4-1BD5FCB93D9D}" name="新鍾心滿福" displayName="新鍾心滿福" ref="D1:M90" totalsRowShown="0" dataDxfId="62" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FE3BEE-EB93-2649-90E4-1BD5FCB93D9D}" name="新鍾心滿福" displayName="新鍾心滿福" ref="D1:M90" totalsRowShown="0" dataDxfId="68" dataCellStyle="Currency">
   <autoFilter ref="D1:M90" xr:uid="{C3FE3BEE-EB93-2649-90E4-1BD5FCB93D9D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4E2F5FE9-6E86-BD41-AC84-8423513FF5D3}" name="保單年度"/>
@@ -783,25 +839,25 @@
       <calculatedColumnFormula>新鍾心滿福[[#This Row],[西元年]]-2002</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{478E9758-F754-B941-A116-E186C3E12E01}" name="西元年"/>
-    <tableColumn id="4" xr3:uid="{2F72CCD4-E912-B54B-B60A-94C9B849D95B}" name="保費" dataDxfId="61" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{2F72CCD4-E912-B54B-B60A-94C9B849D95B}" name="保費" dataDxfId="67" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(D2&lt;=$B$5,37200,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{43A4D5F7-92A6-D54B-A4CF-F36CF781D94D}" name="一般身故" dataDxfId="60" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{43A4D5F7-92A6-D54B-A4CF-F36CF781D94D}" name="一般身故" dataDxfId="66" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,$B$6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3107016C-F5E8-414A-881C-0A2907E11DD0}" name="意外身故" dataDxfId="59" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{3107016C-F5E8-414A-881C-0A2907E11DD0}" name="意外身故" dataDxfId="65" dataCellStyle="Currency">
       <calculatedColumnFormula>新鍾心滿福[[#This Row],[一般身故]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{AFD08B64-B9BE-2742-B503-9C19A7E67ACB}" name="癌症身故" dataDxfId="58" dataCellStyle="Currency">
+    <tableColumn id="7" xr3:uid="{AFD08B64-B9BE-2742-B503-9C19A7E67ACB}" name="癌症身故" dataDxfId="64" dataCellStyle="Currency">
       <calculatedColumnFormula>新鍾心滿福[[#This Row],[一般身故]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DA6A2831-8C43-0949-8158-12E67F094C00}" name="重疾特傷" dataDxfId="57" dataCellStyle="Currency">
+    <tableColumn id="8" xr3:uid="{DA6A2831-8C43-0949-8158-12E67F094C00}" name="重疾特傷" dataDxfId="63" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(D2&lt;=$B$4,$B$6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{99736E5A-357D-F74D-926D-E786F70C0429}" name="重大傷病" dataDxfId="56" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{99736E5A-357D-F74D-926D-E786F70C0429}" name="重大傷病" dataDxfId="62" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(D2&lt;=$B$4,$B$6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6D621234-1CB6-5C4A-A70E-4493417856FF}" name="生存領回金" dataDxfId="55" dataCellStyle="Currency">
+    <tableColumn id="10" xr3:uid="{6D621234-1CB6-5C4A-A70E-4493417856FF}" name="生存領回金" dataDxfId="61" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(E2=$B$4+1,$B$6,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -838,7 +894,7 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B8530385-70BC-5440-BAF0-8543E10956FB}" name="意外身故"/>
     <tableColumn id="7" xr3:uid="{FE5A7911-9E85-9243-8585-F1F50B3D61DD}" name="癌症身故"/>
-    <tableColumn id="10" xr3:uid="{29932687-E12C-4945-80A0-BC93699811A4}" name="生存領回金" dataDxfId="54">
+    <tableColumn id="10" xr3:uid="{29932687-E12C-4945-80A0-BC93699811A4}" name="生存領回金" dataDxfId="60">
       <calculatedColumnFormula>IF(新呵護久久5[[#This Row],[年齡]]&gt;$B$4,0,IF(AND(MOD(E2,2)=0,新呵護久久5[[#This Row],[年齡]]&lt;&gt;0),10000,0)+IF(新呵護久久5[[#This Row],[年齡]]=$B$4,200000,0)+IF(新呵護久久5[[#This Row],[年齡]]=$B$5+1,200000,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -855,25 +911,25 @@
       <calculatedColumnFormula>新呵護久久56[[#This Row],[西元年]]-2002</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{532D9DC5-D199-0C4B-9021-42CBF06C3EB4}" name="西元年"/>
-    <tableColumn id="4" xr3:uid="{7AF183B9-A5CE-AC4D-86C7-430F1C75D418}" name="保費" dataDxfId="53">
+    <tableColumn id="4" xr3:uid="{7AF183B9-A5CE-AC4D-86C7-430F1C75D418}" name="保費" dataDxfId="59">
       <calculatedColumnFormula>IF(D2&lt;=$B$5,3165,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BB1A29C6-EE96-484B-B1DC-AA8E0A8C420F}" name="癌症身故" dataDxfId="52">
+    <tableColumn id="5" xr3:uid="{BB1A29C6-EE96-484B-B1DC-AA8E0A8C420F}" name="癌症身故" dataDxfId="58">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,900000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E780ABA9-8097-BD47-8E1F-CAEA721B684A}" name="初次罹癌" dataDxfId="51">
+    <tableColumn id="6" xr3:uid="{E780ABA9-8097-BD47-8E1F-CAEA721B684A}" name="初次罹癌" dataDxfId="57">
       <calculatedColumnFormula>IF(新呵護久久56[[#This Row],[年齡]]&lt;=$B$4,IF(新呵護久久56[[#This Row],[保單年度]]&lt;=B5,90000,180000),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A6BE10F7-A0BB-6145-87CF-2BBF0EF99B7F}" name="癌症手術" dataDxfId="50">
+    <tableColumn id="7" xr3:uid="{A6BE10F7-A0BB-6145-87CF-2BBF0EF99B7F}" name="癌症手術" dataDxfId="56">
       <calculatedColumnFormula>IF(新呵護久久56[[#This Row],[年齡]]&lt;=$B$4,90000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DED0C58F-A760-8C4D-9132-BEF83B5370FD}" name="癌症住院" dataDxfId="49">
+    <tableColumn id="8" xr3:uid="{DED0C58F-A760-8C4D-9132-BEF83B5370FD}" name="癌症住院" dataDxfId="55">
       <calculatedColumnFormula>IF(新呵護久久56[[#This Row],[年齡]]&lt;=$B$4,6000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2612472D-1F4B-9B41-A927-074BCC47D96A}" name="癌症門診" dataDxfId="48">
+    <tableColumn id="9" xr3:uid="{2612472D-1F4B-9B41-A927-074BCC47D96A}" name="癌症門診" dataDxfId="54">
       <calculatedColumnFormula>IF(新呵護久久56[[#This Row],[年齡]]&lt;=$B$4,3000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B43A587D-ECEF-454D-8CAD-7BEF37518E5E}" name="癌症出院" dataDxfId="47">
+    <tableColumn id="10" xr3:uid="{B43A587D-ECEF-454D-8CAD-7BEF37518E5E}" name="癌症出院" dataDxfId="53">
       <calculatedColumnFormula>IF(新呵護久久56[[#This Row],[年齡]]&lt;=$B$4,3000,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -890,28 +946,28 @@
       <calculatedColumnFormula>新呵護久久567[[#This Row],[西元年]]-2002</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{871F76E3-56A5-2B4B-B677-2E1FDD29ECC6}" name="西元年"/>
-    <tableColumn id="4" xr3:uid="{0BBB709E-50D1-6F46-8D3B-331B7ADB771E}" name="保費" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{0BBB709E-50D1-6F46-8D3B-331B7ADB771E}" name="保費" dataDxfId="52">
       <calculatedColumnFormula>IF(D2&lt;=$B$5,6950,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8D2D2C62-B943-DB48-B253-688874B1C9FB}" name="住院病房（日）" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{8D2D2C62-B943-DB48-B253-688874B1C9FB}" name="住院病房（日）" dataDxfId="51">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,1000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1BF3E718-5792-7E45-8A3B-1F7AEC170BF1}" name="長期住院（日）" dataDxfId="39">
+    <tableColumn id="6" xr3:uid="{1BF3E718-5792-7E45-8A3B-1F7AEC170BF1}" name="長期住院（日）" dataDxfId="50">
       <calculatedColumnFormula>IF(新呵護久久567[[#This Row],[年齡]]&lt;=$B$4,2000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3973C955-B847-7942-84EB-E8F686EAEFA8}" name="加護傷燙住院（日）" dataDxfId="40">
+    <tableColumn id="7" xr3:uid="{3973C955-B847-7942-84EB-E8F686EAEFA8}" name="加護傷燙住院（日）" dataDxfId="49">
       <calculatedColumnFormula>IF(新呵護久久567[[#This Row],[年齡]]&lt;=$B$4,2000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FF0C398-F753-7748-B3BE-E68F41EB6659}" name="急診住院" dataDxfId="41">
+    <tableColumn id="8" xr3:uid="{0FF0C398-F753-7748-B3BE-E68F41EB6659}" name="急診住院" dataDxfId="48">
       <calculatedColumnFormula>IF(新呵護久久567[[#This Row],[年齡]]&lt;=$B$4,500,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B5F0FA34-B9BC-6F49-8EAA-59647276CC0C}" name="特定手術" dataDxfId="42">
+    <tableColumn id="9" xr3:uid="{B5F0FA34-B9BC-6F49-8EAA-59647276CC0C}" name="特定手術" dataDxfId="47">
       <calculatedColumnFormula>IF(新呵護久久567[[#This Row],[年齡]]&lt;=$B$4,50000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CB86912-0659-FC4C-A575-A658EB834461}" name="住院前、後門診" dataDxfId="43">
+    <tableColumn id="10" xr3:uid="{2CB86912-0659-FC4C-A575-A658EB834461}" name="住院前、後門診" dataDxfId="46">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,250,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0413F50A-23AB-BB48-9B33-748E5877603B}" name="醫療轉送" dataDxfId="44">
+    <tableColumn id="11" xr3:uid="{0413F50A-23AB-BB48-9B33-748E5877603B}" name="醫療轉送" dataDxfId="45">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,1000,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -928,43 +984,43 @@
       <calculatedColumnFormula>新呵護久久5678[[#This Row],[西元年]]-2002</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7D5C1CEF-4CDE-0848-BD1A-50E02DBF5FFB}" name="西元年"/>
-    <tableColumn id="4" xr3:uid="{7146FE51-6EC4-304E-9D53-A25B04C073E6}" name="保費" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{7146FE51-6EC4-304E-9D53-A25B04C073E6}" name="保費" dataDxfId="44">
       <calculatedColumnFormula>IF(D2&lt;=$B$5,8020,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7DD53643-8B63-8948-B121-C492751EDD67}" name="一般身故" dataDxfId="26" dataCellStyle="Currency">
+    <tableColumn id="16" xr3:uid="{7DD53643-8B63-8948-B121-C492751EDD67}" name="一般身故" dataDxfId="43" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(E2&lt;$B$4,SUM($G$2:新呵護久久5678[[#This Row],[保費]])*1.05,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C8BA9423-3D23-B94D-8237-314B24053F14}" name="意外身故" dataDxfId="28" dataCellStyle="Currency">
+    <tableColumn id="15" xr3:uid="{C8BA9423-3D23-B94D-8237-314B24053F14}" name="意外身故" dataDxfId="42" dataCellStyle="Currency">
       <calculatedColumnFormula>H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DD394EB9-C910-184C-9A7A-2490508746E5}" name="癌症身故" dataDxfId="27" dataCellStyle="Currency">
+    <tableColumn id="14" xr3:uid="{DD394EB9-C910-184C-9A7A-2490508746E5}" name="癌症身故" dataDxfId="41" dataCellStyle="Currency">
       <calculatedColumnFormula>H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3DA5D317-18F4-6D4C-814F-5B0ADD9A9CD1}" name="住院病房（日）" dataDxfId="38">
+    <tableColumn id="5" xr3:uid="{3DA5D317-18F4-6D4C-814F-5B0ADD9A9CD1}" name="住院病房（日）" dataDxfId="40">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,1000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7E85C598-DC88-E145-B742-85FDFDC96DA5}" name="長期住院（日）" dataDxfId="37">
+    <tableColumn id="6" xr3:uid="{7E85C598-DC88-E145-B742-85FDFDC96DA5}" name="長期住院（日）" dataDxfId="39">
       <calculatedColumnFormula>IF(新呵護久久5678[[#This Row],[年齡]]&lt;=$B$4,2000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6182BECD-DFFC-AD49-B044-784616B8F253}" name="加護傷燙住院（日）" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{6182BECD-DFFC-AD49-B044-784616B8F253}" name="加護傷燙住院（日）" dataDxfId="38">
       <calculatedColumnFormula>IF(新呵護久久5678[[#This Row],[年齡]]&lt;=$B$4,2000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{58A87155-0434-DE4B-943B-F8903B3BB2E8}" name="急診住院" dataDxfId="33">
+    <tableColumn id="8" xr3:uid="{58A87155-0434-DE4B-943B-F8903B3BB2E8}" name="急診住院" dataDxfId="37">
       <calculatedColumnFormula>IF(新呵護久久5678[[#This Row],[年齡]]&lt;=$B$4,1000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CBEA9841-4AF8-6F44-94C7-93E8C3EE8D0C}" name="住院手術" dataDxfId="32">
+    <tableColumn id="9" xr3:uid="{CBEA9841-4AF8-6F44-94C7-93E8C3EE8D0C}" name="住院手術" dataDxfId="36">
       <calculatedColumnFormula>IF(新呵護久久5678[[#This Row],[年齡]]&lt;=$B$4,3000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5C67F19D-8D51-BB4F-AD6C-B988EC244D39}" name="門診手術" dataDxfId="31">
+    <tableColumn id="12" xr3:uid="{5C67F19D-8D51-BB4F-AD6C-B988EC244D39}" name="門診手術" dataDxfId="35">
       <calculatedColumnFormula>IF(新呵護久久5678[[#This Row],[年齡]]&lt;=$B$4,1000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{ADAC56FA-3C09-734F-AE03-535D2459E393}" name="住院前、後門診" dataDxfId="35">
+    <tableColumn id="10" xr3:uid="{ADAC56FA-3C09-734F-AE03-535D2459E393}" name="住院前、後門診" dataDxfId="34">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,250,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1A71287F-0195-C945-9B48-B4FE6D193510}" name="醫療轉送" dataDxfId="30">
+    <tableColumn id="11" xr3:uid="{1A71287F-0195-C945-9B48-B4FE6D193510}" name="醫療轉送" dataDxfId="33">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,2000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{82300B7D-AA8B-BF4A-A286-44438276C123}" name="出院療養" dataDxfId="29">
+    <tableColumn id="13" xr3:uid="{82300B7D-AA8B-BF4A-A286-44438276C123}" name="出院療養" dataDxfId="32">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,500,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -981,28 +1037,28 @@
       <calculatedColumnFormula>新呵護久久5679[[#This Row],[西元年]]-2002</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{337154CD-AAB8-6D45-AEEE-4C843EBC6BBE}" name="西元年"/>
-    <tableColumn id="4" xr3:uid="{6BE7A116-1546-954B-8711-CD3C7F96E683}" name="保費" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{6BE7A116-1546-954B-8711-CD3C7F96E683}" name="保費" dataDxfId="31">
       <calculatedColumnFormula>IF(D2&lt;=$B$5,2450,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D68DE3A4-615F-4149-8C34-138D09FBCD86}" name="住院病房（日）" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{D68DE3A4-615F-4149-8C34-138D09FBCD86}" name="住院病房（日）" dataDxfId="30">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,1000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D94BF134-8864-A34E-BC5B-7F3FF543F39D}" name="長期住院（日）" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{D94BF134-8864-A34E-BC5B-7F3FF543F39D}" name="長期住院（日）" dataDxfId="29">
       <calculatedColumnFormula>IF(新呵護久久5679[[#This Row],[年齡]]&lt;=$B$4,1000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{607D580D-F67B-1542-954C-242C6904E363}" name="加護傷燙住院（日）" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{607D580D-F67B-1542-954C-242C6904E363}" name="加護傷燙住院（日）" dataDxfId="28">
       <calculatedColumnFormula>IF(新呵護久久5679[[#This Row],[年齡]]&lt;=$B$4,2000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2269D652-B5C3-1A47-AE29-48173CCCF520}" name="住院手術" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{2269D652-B5C3-1A47-AE29-48173CCCF520}" name="住院手術" dataDxfId="27">
       <calculatedColumnFormula>IF(新呵護久久5679[[#This Row],[年齡]]&lt;=$B$4,80000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8864E443-3A4F-C041-A460-0D64F8D13903}" name="門診手術" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{8864E443-3A4F-C041-A460-0D64F8D13903}" name="門診手術" dataDxfId="26">
       <calculatedColumnFormula>IF(新呵護久久5679[[#This Row],[年齡]]&lt;=$B$4,80000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3261F740-9ABF-2042-BEBA-FB30DF4C036B}" name="手術療養" dataDxfId="21">
+    <tableColumn id="10" xr3:uid="{3261F740-9ABF-2042-BEBA-FB30DF4C036B}" name="手術療養" dataDxfId="25">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,40000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C1C07C85-651F-0A45-99D6-1977B4041992}" name="出院療養" dataDxfId="20">
+    <tableColumn id="11" xr3:uid="{C1C07C85-651F-0A45-99D6-1977B4041992}" name="出院療養" dataDxfId="24">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,500,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1019,34 +1075,34 @@
       <calculatedColumnFormula>新呵護久久567810[[#This Row],[西元年]]-2002</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{1589D86C-95DB-7F45-9B93-4C047978F0DD}" name="西元年"/>
-    <tableColumn id="4" xr3:uid="{84D9E43F-9001-F340-B71B-884B790F897D}" name="保費" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{84D9E43F-9001-F340-B71B-884B790F897D}" name="保費" dataDxfId="23">
       <calculatedColumnFormula>IF(D2&lt;=$B$5,7390,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1E78C2A8-065E-6840-905D-5CB986D291EC}" name="一般身故" dataDxfId="17" dataCellStyle="Currency">
+    <tableColumn id="16" xr3:uid="{1E78C2A8-065E-6840-905D-5CB986D291EC}" name="一般身故" dataDxfId="22" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(E2&lt;$B$4,SUM($G$2:新呵護久久567810[[#This Row],[保費]])*1.05,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{244EDB1C-E157-284C-96F4-9A349F1A9635}" name="意外身故" dataDxfId="16" dataCellStyle="Currency">
+    <tableColumn id="15" xr3:uid="{244EDB1C-E157-284C-96F4-9A349F1A9635}" name="意外身故" dataDxfId="21" dataCellStyle="Currency">
       <calculatedColumnFormula>H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{29E11174-44D5-CC4F-B7B2-45B7F1DE0A10}" name="癌症身故" dataDxfId="15" dataCellStyle="Currency">
+    <tableColumn id="14" xr3:uid="{29E11174-44D5-CC4F-B7B2-45B7F1DE0A10}" name="癌症身故" dataDxfId="20" dataCellStyle="Currency">
       <calculatedColumnFormula>H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D4F2BC10-41E4-E045-90DF-800F289F298B}" name="重疾特傷" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{D4F2BC10-41E4-E045-90DF-800F289F298B}" name="重疾特傷" dataDxfId="19">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,100000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CBACD89A-B71A-BD49-B27D-CC48A5D671EE}" name="意外縫合" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{CBACD89A-B71A-BD49-B27D-CC48A5D671EE}" name="意外縫合" dataDxfId="18">
       <calculatedColumnFormula>IF(新呵護久久567810[[#This Row],[年齡]]&lt;=$B$4,1000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A83A2B6C-947E-3B4E-BC8E-D1B4E98E7231}" name="住院手術" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{A83A2B6C-947E-3B4E-BC8E-D1B4E98E7231}" name="住院手術" dataDxfId="17">
       <calculatedColumnFormula>IF(新呵護久久567810[[#This Row],[年齡]]&lt;=$B$4,80000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{76B540CE-7BF6-674C-AB9B-9369FDD0B9A1}" name="門診手術" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{76B540CE-7BF6-674C-AB9B-9369FDD0B9A1}" name="門診手術" dataDxfId="16">
       <calculatedColumnFormula>IF(新呵護久久567810[[#This Row],[年齡]]&lt;=$B$4,80000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7EA9475C-70E9-374D-8137-A6F1403A44D5}" name="重大手術療養" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{7EA9475C-70E9-374D-8137-A6F1403A44D5}" name="重大手術療養" dataDxfId="15">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,40000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{709F61EF-5AF4-5B47-8E52-1FB56594BBEF}" name="住院療養" dataDxfId="12">
+    <tableColumn id="13" xr3:uid="{709F61EF-5AF4-5B47-8E52-1FB56594BBEF}" name="住院療養" dataDxfId="14">
       <calculatedColumnFormula>IF(E2&lt;=$B$4,3000,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9033,7 +9089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B229A5-C1C5-094F-903A-B685D9C63173}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -12745,6 +12801,4176 @@
       </c>
       <c r="K111" s="4">
         <f>IF(新呵護久久5612[[#This Row],[年齡]]&lt;=$B$4,200000,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E11A77-27E3-1743-A6AB-716FBFA150A8}">
+  <dimension ref="A1:L111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41052</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>YEAR(B2)</f>
+        <v>2012</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G33" si="0">IF(D2&lt;=$B$5,1136,0)</f>
+        <v>1136</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H33" si="1">IF(E2&lt;=$B$4,2000,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="I2" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J2" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K2" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L33" si="2">IF(E2&lt;=$B$4,350000,0)</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <f>F2+1</f>
+        <v>2013</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I3" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J3" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K3" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="3">F3+1</f>
+        <v>2014</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I4" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J4" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K4" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I5" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J5" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K5" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I6" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J6" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K6" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>2017</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I7" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J7" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K7" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>2018</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I8" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J8" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K8" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I9" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J9" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K9" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I10" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J10" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K10" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>2021</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I11" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J11" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K11" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I12" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J12" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K12" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>2023</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I13" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J13" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K13" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I14" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J14" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K14" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I15" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J15" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K15" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>2026</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I16" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J16" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K16" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>2027</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I17" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J17" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K17" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>2028</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I18" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J18" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K18" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>2029</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I19" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J19" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K19" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>2030</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I20" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J20" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K20" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>2031</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I21" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J21" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K21" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>2032</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I22" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J22" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K22" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>2033</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I23" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J23" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K23" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>2034</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I24" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J24" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K24" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>33</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>2035</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I25" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J25" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K25" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>2036</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I26" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J26" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K26" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>2037</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I27" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J27" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K27" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>2038</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I28" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J28" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K28" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>2039</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I29" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J29" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K29" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>38</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I30" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J30" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K30" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>39</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>2041</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I31" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J31" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K31" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>2042</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I32" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J32" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K32" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>41</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>2043</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I33" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J33" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K33" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>42</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>2044</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" ref="G34:G65" si="4">IF(D34&lt;=$B$5,1136,0)</f>
+        <v>1136</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" ref="H34:H65" si="5">IF(E34&lt;=$B$4,2000,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="I34" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J34" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K34" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" ref="L34:L65" si="6">IF(E34&lt;=$B$4,350000,0)</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>43</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I35" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J35" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K35" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>44</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>2046</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I36" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J36" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K36" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>45</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>2047</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I37" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J37" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K37" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>46</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I38" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J38" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K38" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>47</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>2049</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I39" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J39" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K39" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>48</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I40" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J40" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K40" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>49</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>2051</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I41" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J41" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K41" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>2052</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I42" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J42" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K42" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>2053</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I43" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J43" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K43" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>52</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>2054</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I44" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J44" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K44" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>53</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>2055</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I45" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J45" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K45" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>54</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>2056</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I46" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J46" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K46" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>2057</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I47" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J47" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K47" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>56</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>2058</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I48" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J48" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K48" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>2059</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I49" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J49" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K49" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>58</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>2060</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I50" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J50" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K50" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>59</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>2061</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I51" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J51" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K51" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>60</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>2062</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I52" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J52" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K52" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>61</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>2063</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I53" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J53" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K53" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>62</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>2064</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I54" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J54" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K54" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>63</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>2065</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I55" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J55" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K55" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>64</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>2066</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I56" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J56" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K56" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>65</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>2067</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I57" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J57" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K57" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>66</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>2068</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I58" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J58" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K58" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="59" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>67</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>2069</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I59" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J59" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K59" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>68</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>2070</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I60" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J60" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K60" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>69</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>2071</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I61" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J61" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K61" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>70</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>2072</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I62" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J62" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K62" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>71</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>2073</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I63" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J63" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K63" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>72</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>2074</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I64" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J64" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K64" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L64" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>73</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>2075</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="4"/>
+        <v>1136</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I65" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J65" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K65" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L65" s="4">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="66" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>74</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>2076</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" ref="G66:G97" si="7">IF(D66&lt;=$B$5,1136,0)</f>
+        <v>1136</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" ref="H66:H97" si="8">IF(E66&lt;=$B$4,2000,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="I66" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J66" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K66" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L66" s="4">
+        <f t="shared" ref="L66:L97" si="9">IF(E66&lt;=$B$4,350000,0)</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="67" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>75</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="3"/>
+        <v>2077</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="7"/>
+        <v>1136</v>
+      </c>
+      <c r="H67" s="4">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="I67" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J67" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K67" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L67" s="4">
+        <f t="shared" si="9"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>67</v>
+      </c>
+      <c r="E68">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>76</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F111" si="10">F67+1</f>
+        <v>2078</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="7"/>
+        <v>1136</v>
+      </c>
+      <c r="H68" s="4">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="I68" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J68" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K68" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L68" s="4">
+        <f t="shared" si="9"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="69" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>68</v>
+      </c>
+      <c r="E69">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>77</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="10"/>
+        <v>2079</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="7"/>
+        <v>1136</v>
+      </c>
+      <c r="H69" s="4">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="I69" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J69" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K69" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L69" s="4">
+        <f t="shared" si="9"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="70" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>69</v>
+      </c>
+      <c r="E70">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>78</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="10"/>
+        <v>2080</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="7"/>
+        <v>1136</v>
+      </c>
+      <c r="H70" s="4">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="I70" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J70" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K70" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L70" s="4">
+        <f t="shared" si="9"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="71" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>79</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="10"/>
+        <v>2081</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="7"/>
+        <v>1136</v>
+      </c>
+      <c r="H71" s="4">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="I71" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J71" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K71" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L71" s="4">
+        <f t="shared" si="9"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>80</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="10"/>
+        <v>2082</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="7"/>
+        <v>1136</v>
+      </c>
+      <c r="H72" s="4">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="I72" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J72" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K72" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L72" s="4">
+        <f t="shared" si="9"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="73" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>81</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="10"/>
+        <v>2083</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="7"/>
+        <v>1136</v>
+      </c>
+      <c r="H73" s="4">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="I73" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="J73" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="K73" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>70000</v>
+      </c>
+      <c r="L73" s="4">
+        <f t="shared" si="9"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="74" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="E74">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>82</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="10"/>
+        <v>2084</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>83</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="10"/>
+        <v>2085</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>84</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="10"/>
+        <v>2086</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>76</v>
+      </c>
+      <c r="E77">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>85</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="10"/>
+        <v>2087</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>86</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="10"/>
+        <v>2088</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>87</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="10"/>
+        <v>2089</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>79</v>
+      </c>
+      <c r="E80">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>88</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="10"/>
+        <v>2090</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>89</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="10"/>
+        <v>2091</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>90</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="10"/>
+        <v>2092</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>82</v>
+      </c>
+      <c r="E83">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>91</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="10"/>
+        <v>2093</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>92</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="10"/>
+        <v>2094</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>93</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="10"/>
+        <v>2095</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>94</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="10"/>
+        <v>2096</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>86</v>
+      </c>
+      <c r="E87">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>95</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="10"/>
+        <v>2097</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>87</v>
+      </c>
+      <c r="E88">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>96</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="10"/>
+        <v>2098</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>88</v>
+      </c>
+      <c r="E89">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>97</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="10"/>
+        <v>2099</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>98</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="10"/>
+        <v>2100</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>90</v>
+      </c>
+      <c r="E91">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>99</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="10"/>
+        <v>2101</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>91</v>
+      </c>
+      <c r="E92">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>100</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="10"/>
+        <v>2102</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>92</v>
+      </c>
+      <c r="E93">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>101</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="10"/>
+        <v>2103</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>93</v>
+      </c>
+      <c r="E94">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>102</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="10"/>
+        <v>2104</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>94</v>
+      </c>
+      <c r="E95">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>103</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="10"/>
+        <v>2105</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>95</v>
+      </c>
+      <c r="E96">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>104</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="10"/>
+        <v>2106</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>96</v>
+      </c>
+      <c r="E97">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>105</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="10"/>
+        <v>2107</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>97</v>
+      </c>
+      <c r="E98">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>106</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="10"/>
+        <v>2108</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" ref="G98:G111" si="11">IF(D98&lt;=$B$5,1136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="4">
+        <f t="shared" ref="H98:H111" si="12">IF(E98&lt;=$B$4,2000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="4">
+        <f t="shared" ref="L98:L111" si="13">IF(E98&lt;=$B$4,350000,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>98</v>
+      </c>
+      <c r="E99">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>107</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="10"/>
+        <v>2109</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>99</v>
+      </c>
+      <c r="E100">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>108</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="10"/>
+        <v>2110</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>100</v>
+      </c>
+      <c r="E101">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>109</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="10"/>
+        <v>2111</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>101</v>
+      </c>
+      <c r="E102">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>110</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="10"/>
+        <v>2112</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>102</v>
+      </c>
+      <c r="E103">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="10"/>
+        <v>2113</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>103</v>
+      </c>
+      <c r="E104">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>112</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="10"/>
+        <v>2114</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>104</v>
+      </c>
+      <c r="E105">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>113</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="10"/>
+        <v>2115</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>105</v>
+      </c>
+      <c r="E106">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>114</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="10"/>
+        <v>2116</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>106</v>
+      </c>
+      <c r="E107">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>115</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="10"/>
+        <v>2117</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>107</v>
+      </c>
+      <c r="E108">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>116</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="10"/>
+        <v>2118</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>108</v>
+      </c>
+      <c r="E109">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>117</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="10"/>
+        <v>2119</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>109</v>
+      </c>
+      <c r="E110">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>118</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="10"/>
+        <v>2120</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>110</v>
+      </c>
+      <c r="E111">
+        <f>新呵護久久567913[[#This Row],[西元年]]-2002</f>
+        <v>119</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="10"/>
+        <v>2121</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="2">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,4000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,180000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="4">
+        <f>IF(新呵護久久567913[[#This Row],[年齡]]&lt;=$B$4,70000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16421,7 +20647,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27501,7 +31727,7 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32553,8 +36779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37F61AA-9563-EF47-86F5-1730D570B633}">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32698,7 +36924,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <f>7</f>
         <v>7</v>
       </c>
@@ -38922,7 +43148,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" ref="I98:I129" si="22">H98</f>
+        <f t="shared" ref="I98:I111" si="22">H98</f>
         <v>0</v>
       </c>
       <c r="J98" s="2">
@@ -45002,7 +49228,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <f>7</f>
         <v>7</v>
       </c>
